--- a/inst/extdata/df_pm.xlsx
+++ b/inst/extdata/df_pm.xlsx
@@ -7810,7 +7810,7 @@
         <v>-15.792732834816</v>
       </c>
       <c r="F72" t="n">
-        <v>35.084366157651</v>
+        <v>35.0843661576509</v>
       </c>
       <c r="G72" t="n">
         <v>3312</v>
@@ -19809,7 +19809,7 @@
         <v>-15.8228512406349</v>
       </c>
       <c r="F241" t="n">
-        <v>35.086841315031</v>
+        <v>35.0868413150311</v>
       </c>
       <c r="G241" t="n">
         <v>2687</v>
@@ -26838,7 +26838,7 @@
         <v>-15.7459865808487</v>
       </c>
       <c r="F340" t="n">
-        <v>35.006728333421</v>
+        <v>35.0067283334211</v>
       </c>
       <c r="G340" t="n">
         <v>3230</v>
@@ -34080,7 +34080,7 @@
         <v>-15.7426044940948</v>
       </c>
       <c r="F442" t="n">
-        <v>35.011492330581</v>
+        <v>35.0114923305809</v>
       </c>
       <c r="G442" t="n">
         <v>5117</v>
@@ -44304,7 +44304,7 @@
         <v>-15.8271847367287</v>
       </c>
       <c r="F586" t="n">
-        <v>35.089931473136</v>
+        <v>35.0899314731359</v>
       </c>
       <c r="G586" t="n">
         <v>459137</v>
@@ -45795,7 +45795,7 @@
         <v>-15.8238536715508</v>
       </c>
       <c r="F607" t="n">
-        <v>35.087728984654</v>
+        <v>35.0877289846539</v>
       </c>
       <c r="G607" t="n">
         <v>9144</v>
@@ -54028,7 +54028,7 @@
         <v>606</v>
       </c>
       <c r="E723" t="n">
-        <v>-15.771427333355</v>
+        <v>-15.7714273333549</v>
       </c>
       <c r="F723" t="n">
         <v>35.0363168232143</v>
@@ -55306,7 +55306,7 @@
         <v>624</v>
       </c>
       <c r="E741" t="n">
-        <v>-15.770524919033</v>
+        <v>-15.7705249190331</v>
       </c>
       <c r="F741" t="n">
         <v>35.0402233228087</v>
@@ -56090,7 +56090,7 @@
         <v>-15.7687409520149</v>
       </c>
       <c r="F752" t="n">
-        <v>35.040425490588</v>
+        <v>35.0404254905879</v>
       </c>
       <c r="G752" t="n">
         <v>7054</v>
@@ -64681,7 +64681,7 @@
         <v>-15.7856683731079</v>
       </c>
       <c r="F873" t="n">
-        <v>35.037680156529</v>
+        <v>35.0376801565289</v>
       </c>
       <c r="G873" t="n">
         <v>-5649</v>
@@ -79591,7 +79591,7 @@
         <v>-15.7737290263176</v>
       </c>
       <c r="F1083" t="n">
-        <v>35.038137987256</v>
+        <v>35.0381379872561</v>
       </c>
       <c r="G1083" t="n">
         <v>3975</v>
@@ -80514,7 +80514,7 @@
         <v>-15.7740366458893</v>
       </c>
       <c r="F1096" t="n">
-        <v>35.036852158606</v>
+        <v>35.0368521586061</v>
       </c>
       <c r="G1096" t="n">
         <v>6704</v>

--- a/inst/extdata/df_pm.xlsx
+++ b/inst/extdata/df_pm.xlsx
@@ -7810,7 +7810,7 @@
         <v>-15.792732834816</v>
       </c>
       <c r="F72" t="n">
-        <v>35.0843661576509</v>
+        <v>35.084366157651</v>
       </c>
       <c r="G72" t="n">
         <v>3312</v>
@@ -19809,7 +19809,7 @@
         <v>-15.8228512406349</v>
       </c>
       <c r="F241" t="n">
-        <v>35.0868413150311</v>
+        <v>35.086841315031</v>
       </c>
       <c r="G241" t="n">
         <v>2687</v>
@@ -26838,7 +26838,7 @@
         <v>-15.7459865808487</v>
       </c>
       <c r="F340" t="n">
-        <v>35.0067283334211</v>
+        <v>35.006728333421</v>
       </c>
       <c r="G340" t="n">
         <v>3230</v>
@@ -34080,7 +34080,7 @@
         <v>-15.7426044940948</v>
       </c>
       <c r="F442" t="n">
-        <v>35.0114923305809</v>
+        <v>35.011492330581</v>
       </c>
       <c r="G442" t="n">
         <v>5117</v>
@@ -44304,7 +44304,7 @@
         <v>-15.8271847367287</v>
       </c>
       <c r="F586" t="n">
-        <v>35.0899314731359</v>
+        <v>35.089931473136</v>
       </c>
       <c r="G586" t="n">
         <v>459137</v>
@@ -45795,7 +45795,7 @@
         <v>-15.8238536715508</v>
       </c>
       <c r="F607" t="n">
-        <v>35.0877289846539</v>
+        <v>35.087728984654</v>
       </c>
       <c r="G607" t="n">
         <v>9144</v>
@@ -54028,7 +54028,7 @@
         <v>606</v>
       </c>
       <c r="E723" t="n">
-        <v>-15.7714273333549</v>
+        <v>-15.771427333355</v>
       </c>
       <c r="F723" t="n">
         <v>35.0363168232143</v>
@@ -55306,7 +55306,7 @@
         <v>624</v>
       </c>
       <c r="E741" t="n">
-        <v>-15.7705249190331</v>
+        <v>-15.770524919033</v>
       </c>
       <c r="F741" t="n">
         <v>35.0402233228087</v>
@@ -56090,7 +56090,7 @@
         <v>-15.7687409520149</v>
       </c>
       <c r="F752" t="n">
-        <v>35.0404254905879</v>
+        <v>35.040425490588</v>
       </c>
       <c r="G752" t="n">
         <v>7054</v>
@@ -64681,7 +64681,7 @@
         <v>-15.7856683731079</v>
       </c>
       <c r="F873" t="n">
-        <v>35.0376801565289</v>
+        <v>35.037680156529</v>
       </c>
       <c r="G873" t="n">
         <v>-5649</v>
@@ -79591,7 +79591,7 @@
         <v>-15.7737290263176</v>
       </c>
       <c r="F1083" t="n">
-        <v>35.0381379872561</v>
+        <v>35.038137987256</v>
       </c>
       <c r="G1083" t="n">
         <v>3975</v>
@@ -80514,7 +80514,7 @@
         <v>-15.7740366458893</v>
       </c>
       <c r="F1096" t="n">
-        <v>35.0368521586061</v>
+        <v>35.036852158606</v>
       </c>
       <c r="G1096" t="n">
         <v>6704</v>
